--- a/Window_Lifter/V-Cycle Process1/V_Cycle Process Script.xlsx
+++ b/Window_Lifter/V-Cycle Process1/V_Cycle Process Script.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="4635" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="4635" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="V-Cycle" sheetId="2" r:id="rId1"/>
@@ -1992,7 +1992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -2006,7 +2006,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:E33"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2229,9 +2231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:E27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2406,8 +2406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:E31"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
